--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Project-Budget.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Project-Budget.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TopeOyeniyi\Desktop\To be Uploaded\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAC2B8F-FEF1-4452-B7DA-42D331821F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5325C7-23D6-49CD-B0B6-B55C45F1CA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="5" r:id="rId1"/>
     <sheet name="Project Budget" sheetId="3" r:id="rId2"/>
+    <sheet name="Scope Elements" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="CIQWBGuid" hidden="1">"2cd8126d-26c3-430c-b7fa-a069e3a1fc62"</definedName>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="102">
   <si>
     <t>https://corporatefinanceinstitute.com/</t>
   </si>
@@ -220,18 +221,183 @@
   </si>
   <si>
     <t>Project Budget</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>ICT Team</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>4 TB</t>
+  </si>
+  <si>
+    <t>Standard Tier</t>
+  </si>
+  <si>
+    <t>Azure VNet + VPN Gateway</t>
+  </si>
+  <si>
+    <t>VPN Gateway Standard</t>
+  </si>
+  <si>
+    <t>Azure AD Premium P1</t>
+  </si>
+  <si>
+    <t>Azure Backup &amp; Recovery</t>
+  </si>
+  <si>
+    <t>2 TB</t>
+  </si>
+  <si>
+    <t>Azure Firewall / NSGs</t>
+  </si>
+  <si>
+    <t>Azure Monitor + Log Analytics</t>
+  </si>
+  <si>
+    <t>Unit/Measurement</t>
+  </si>
+  <si>
+    <t>Azure VMs</t>
+  </si>
+  <si>
+    <t>Azure Storage</t>
+  </si>
+  <si>
+    <t>Azure SQL Managed Instance</t>
+  </si>
+  <si>
+    <t>5 GB</t>
+  </si>
+  <si>
+    <t>250 GB,  8 vCore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cost (AUD) </t>
+  </si>
+  <si>
+    <t>Azure Migrate Services</t>
+  </si>
+  <si>
+    <t>Services included in the contract</t>
+  </si>
+  <si>
+    <t>Services included in the Azure contract</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Manuals and training</t>
+  </si>
+  <si>
+    <t>Services and documents included in the contract</t>
+  </si>
+  <si>
+    <t>Mockups, proof of concept</t>
+  </si>
+  <si>
+    <t>Design (UI/UX)</t>
+  </si>
+  <si>
+    <t>Front-end development</t>
+  </si>
+  <si>
+    <t>Back-end development</t>
+  </si>
+  <si>
+    <t>Cloud + DB integration</t>
+  </si>
+  <si>
+    <t>Testing and QA</t>
+  </si>
+  <si>
+    <t>Domain + Hosting</t>
+  </si>
+  <si>
+    <t>Discharge Windows Server &amp; SQL</t>
+  </si>
+  <si>
+    <t>Azure Connection Tools</t>
+  </si>
+  <si>
+    <t>external validation</t>
+  </si>
+  <si>
+    <t>cost of domain and website hosting</t>
+  </si>
+  <si>
+    <t>Xero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting software </t>
+  </si>
+  <si>
+    <t>Microsoft Office 365 Business Premium</t>
+  </si>
+  <si>
+    <t>Office application</t>
+  </si>
+  <si>
+    <t>Webroot Secure Anywhere</t>
+  </si>
+  <si>
+    <t>Anti-virus</t>
+  </si>
+  <si>
+    <t>Dropbox Business Advanced</t>
+  </si>
+  <si>
+    <t>Wrike Business</t>
+  </si>
+  <si>
+    <t>File management</t>
+  </si>
+  <si>
+    <t>Project management suite</t>
+  </si>
+  <si>
+    <t>Daily backup, must be purchased separately</t>
+  </si>
+  <si>
+    <t>$10 per user</t>
+  </si>
+  <si>
+    <t>cost of the all team members for 40 days part-time</t>
+  </si>
+  <si>
+    <t>Standard settings: 4 vCPU, 16 GB RAM, Win Server 2019 R2</t>
+  </si>
+  <si>
+    <t>Standard security policies</t>
+  </si>
+  <si>
+    <t>Configuration, installation and application deploy</t>
+  </si>
+  <si>
+    <t>Demos, mock-ups, concept apps</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_(#,##0_)_%;\(#,##0\)_%;_(&quot;–&quot;_)_%;_(@_)_%"/>
+    <numFmt numFmtId="166" formatCode="_(#,##0_)_%;\(#,##0\)_%;_(&quot;–&quot;_)_%;_(@_)_%"/>
+    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +556,19 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -429,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -637,16 +816,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -679,21 +885,21 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
@@ -702,14 +908,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -722,7 +925,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,16 +934,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -748,9 +941,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -777,9 +967,64 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="24" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="6" builtinId="4"/>
     <cellStyle name="Hyperlink 2 2" xfId="4" xr:uid="{2B17DF2C-C4D0-450A-B53E-1E17872E7D80}"/>
     <cellStyle name="Hyperlink 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1321,22 +1566,22 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.296875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="40.296875" style="6" customWidth="1"/>
-    <col min="4" max="11" width="11.69921875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="40.296875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="5.296875" style="6" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="6"/>
+    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="40.25" style="6" customWidth="1"/>
+    <col min="4" max="11" width="11.75" style="6" customWidth="1"/>
+    <col min="12" max="12" width="40.25" style="6" customWidth="1"/>
+    <col min="13" max="13" width="5.25" style="6" customWidth="1"/>
+    <col min="14" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1351,7 +1596,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -1366,7 +1611,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -1381,7 +1626,7 @@
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -1396,7 +1641,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1411,7 +1656,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -1426,7 +1671,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -1441,7 +1686,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1">
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -1456,7 +1701,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -1471,7 +1716,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1">
+    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="14"/>
       <c r="C10" s="7"/>
@@ -1486,7 +1731,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" ht="28.5" customHeight="1">
+    <row r="11" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="7"/>
       <c r="B11" s="14"/>
       <c r="C11" s="16" t="s">
@@ -1505,7 +1750,7 @@
       </c>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="14"/>
       <c r="C12" s="18"/>
@@ -1520,7 +1765,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="14"/>
       <c r="C13" s="20" t="s">
@@ -1537,7 +1782,7 @@
       <c r="L13" s="21"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="14"/>
       <c r="C14" s="7"/>
@@ -1552,7 +1797,7 @@
       <c r="L14" s="21"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="14"/>
       <c r="C15" s="22" t="s">
@@ -1569,7 +1814,7 @@
       <c r="L15" s="21"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="14"/>
       <c r="C16" s="23"/>
@@ -1584,7 +1829,7 @@
       <c r="L16" s="21"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="14"/>
       <c r="C17" s="23"/>
@@ -1599,7 +1844,7 @@
       <c r="L17" s="21"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="14"/>
       <c r="C18" s="23"/>
@@ -1614,7 +1859,7 @@
       <c r="L18" s="21"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="14"/>
       <c r="C19" s="23"/>
@@ -1629,7 +1874,7 @@
       <c r="L19" s="21"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="14"/>
       <c r="C20" s="23"/>
@@ -1644,7 +1889,7 @@
       <c r="L20" s="21"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1">
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="14"/>
       <c r="C21" s="24"/>
@@ -1659,7 +1904,7 @@
       <c r="L21" s="21"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="14"/>
       <c r="C22" s="24"/>
@@ -1674,7 +1919,7 @@
       <c r="L22" s="21"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="14"/>
       <c r="C23" s="24"/>
@@ -1689,7 +1934,7 @@
       <c r="L23" s="21"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="14"/>
       <c r="C24" s="24"/>
@@ -1704,7 +1949,7 @@
       <c r="L24" s="21"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="14"/>
       <c r="C25" s="24"/>
@@ -1719,7 +1964,7 @@
       <c r="L25" s="21"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="14"/>
       <c r="C26" s="25"/>
@@ -1734,7 +1979,7 @@
       <c r="L26" s="21"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="14"/>
       <c r="C27" s="25"/>
@@ -1749,7 +1994,7 @@
       <c r="L27" s="21"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="14"/>
       <c r="C28" s="26"/>
@@ -1764,7 +2009,7 @@
       <c r="L28" s="21"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="14"/>
       <c r="C29" s="27"/>
@@ -1779,7 +2024,7 @@
       <c r="L29" s="21"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1">
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="14"/>
       <c r="C30" s="27"/>
@@ -1794,7 +2039,7 @@
       <c r="L30" s="21"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="14"/>
       <c r="C31" s="28" t="s">
@@ -1811,7 +2056,7 @@
       <c r="L31" s="29"/>
       <c r="M31" s="15"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="14"/>
       <c r="C32" s="30" t="s">
@@ -1828,7 +2073,7 @@
       <c r="L32" s="31"/>
       <c r="M32" s="15"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1">
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="14"/>
       <c r="C33" s="30" t="s">
@@ -1845,7 +2090,7 @@
       <c r="L33" s="31"/>
       <c r="M33" s="15"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1">
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="14"/>
       <c r="C34" s="30" t="s">
@@ -1862,7 +2107,7 @@
       <c r="L34" s="31"/>
       <c r="M34" s="15"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1">
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="14"/>
       <c r="C35" s="30" t="s">
@@ -1879,7 +2124,7 @@
       <c r="L35" s="31"/>
       <c r="M35" s="15"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1">
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="14"/>
       <c r="C36" s="30" t="s">
@@ -1896,7 +2141,7 @@
       <c r="L36" s="31"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1">
+    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="14"/>
       <c r="C37" s="30"/>
@@ -1911,7 +2156,7 @@
       <c r="L37" s="31"/>
       <c r="M37" s="15"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1">
+    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="14"/>
       <c r="C38" s="30" t="s">
@@ -1928,7 +2173,7 @@
       <c r="L38" s="31"/>
       <c r="M38" s="15"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
       <c r="B39" s="32"/>
       <c r="C39" s="33"/>
@@ -1945,7 +2190,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" thickTop="1">
+    <row r="40" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1973,34 +2218,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="B1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.69921875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="36" customFormat="1" ht="55" customHeight="1">
+    <row r="1" spans="2:18" s="36" customFormat="1" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2019,7 +2264,7 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="3" spans="1:19" s="36" customFormat="1" ht="20.5">
+    <row r="3" spans="2:18" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B3" s="35"/>
       <c r="C3" s="35" t="s">
         <v>1</v>
@@ -2040,999 +2285,1525 @@
       <c r="Q3" s="35"/>
       <c r="R3" s="35"/>
     </row>
-    <row r="4" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-    </row>
-    <row r="5" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="63" t="s">
+    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+    </row>
+    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61">
+      <c r="G5" s="52"/>
+      <c r="H5" s="53">
         <f>D10+D20</f>
         <v>90</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61">
+      <c r="J5" s="52"/>
+      <c r="K5" s="53">
         <f>P10+P20</f>
         <v>3550</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="61">
+      <c r="M5" s="53">
         <f>R10+R20</f>
         <v>420</v>
       </c>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="40"/>
-    </row>
-    <row r="6" spans="1:19" s="37" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="65" t="s">
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="56"/>
+    </row>
+    <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="68">
+      <c r="G6" s="58"/>
+      <c r="H6" s="60">
         <f>E10+E20</f>
         <v>81</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="69">
+      <c r="J6" s="58"/>
+      <c r="K6" s="61">
         <f>Q10+Q20</f>
         <v>3970</v>
       </c>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="40"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="47" t="s">
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="63"/>
+    </row>
+    <row r="7" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="45"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47" t="s">
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="39"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="48" t="s">
+      <c r="Q7" s="44"/>
+      <c r="R7" s="46"/>
+    </row>
+    <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47" t="s">
+      <c r="G8" s="44"/>
+      <c r="H8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47" t="s">
+      <c r="I8" s="44"/>
+      <c r="J8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47" t="s">
+      <c r="K8" s="44"/>
+      <c r="L8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47" t="s">
+      <c r="M8" s="44"/>
+      <c r="N8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47" t="s">
+      <c r="O8" s="44"/>
+      <c r="P8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="39"/>
-    </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="55" t="s">
+      <c r="Q8" s="44"/>
+      <c r="R8" s="46"/>
+    </row>
+    <row r="9" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="47"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="55" t="s">
+      <c r="L9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="55" t="s">
+      <c r="N9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="55" t="s">
+      <c r="O9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="56"/>
-      <c r="S9" s="39"/>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1">
-      <c r="B10" s="50">
+      <c r="R9" s="49"/>
+    </row>
+    <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="40">
         <v>1</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="41">
         <v>40</v>
       </c>
-      <c r="E10" s="52">
+      <c r="E10" s="41">
         <v>38</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="42">
         <v>20</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="42">
         <v>25</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="50">
         <f>D10*F10</f>
         <v>800</v>
       </c>
-      <c r="I10" s="57">
+      <c r="I10" s="50">
         <f>E10*G10</f>
         <v>950</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="41">
         <v>20</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="41">
         <v>30</v>
       </c>
-      <c r="L10" s="53">
+      <c r="L10" s="42">
         <v>50</v>
       </c>
-      <c r="M10" s="53">
+      <c r="M10" s="42">
         <v>50</v>
       </c>
-      <c r="N10" s="57">
+      <c r="N10" s="50">
         <f>J10*L10</f>
         <v>1000</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="50">
         <f>K10*M10</f>
         <v>1500</v>
       </c>
-      <c r="P10" s="57">
+      <c r="P10" s="50">
         <f>H10+N10</f>
         <v>1800</v>
       </c>
-      <c r="Q10" s="57">
+      <c r="Q10" s="50">
         <f>I10+O10</f>
         <v>2450</v>
       </c>
-      <c r="R10" s="57">
+      <c r="R10" s="50">
         <f>Q10-P10</f>
         <v>650</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1">
-      <c r="B11" s="43">
+    <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="40">
         <v>1.1000000000000001</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="41">
         <v>10</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="41">
         <v>12</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="42">
         <v>20</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="42">
         <v>25</v>
       </c>
-      <c r="H11" s="58">
+      <c r="H11" s="50">
         <f t="shared" ref="H11:I29" si="0">D11*F11</f>
         <v>200</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="50">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1">
-      <c r="B12" s="43" t="s">
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+    </row>
+    <row r="12" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="41">
         <v>5</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="41">
         <v>6</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="42">
         <v>20</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="42">
         <v>25</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="50">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I12" s="58">
+      <c r="I12" s="50">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1">
-      <c r="B13" s="43" t="s">
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+    </row>
+    <row r="13" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="41">
         <v>5</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="41">
         <v>6</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="42">
         <v>20</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="42">
         <v>25</v>
       </c>
-      <c r="H13" s="58">
+      <c r="H13" s="50">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="50">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1">
-      <c r="B14" s="43">
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+    </row>
+    <row r="14" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40">
         <v>1.2</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="41">
         <v>20</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="41">
         <v>15</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="42">
         <v>20</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="42">
         <v>25</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="50">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="50">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1">
-      <c r="B15" s="43" t="s">
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+    </row>
+    <row r="15" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="41">
         <v>10</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="41">
         <v>8</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="42">
         <v>20</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="42">
         <v>25</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="50">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="50">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1">
-      <c r="B16" s="43" t="s">
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+    </row>
+    <row r="16" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="41">
         <v>10</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="41">
         <v>7</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="42">
         <v>20</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="42">
         <v>25</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="50">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I16" s="58">
+      <c r="I16" s="50">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-    </row>
-    <row r="17" spans="2:18" ht="15" customHeight="1">
-      <c r="B17" s="43">
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+    </row>
+    <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="40">
         <v>1.3</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>10</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="41">
         <v>11</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="42">
         <v>20</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="42">
         <v>25</v>
       </c>
-      <c r="H17" s="58">
+      <c r="H17" s="50">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="50">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-    </row>
-    <row r="18" spans="2:18" ht="15" customHeight="1">
-      <c r="B18" s="43" t="s">
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+    </row>
+    <row r="18" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="40" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="41">
         <v>5</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="41">
         <v>4</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="42">
         <v>20</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="42">
         <v>25</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="50">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I18" s="50">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-    </row>
-    <row r="19" spans="2:18" ht="15" customHeight="1">
-      <c r="B19" s="43" t="s">
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+    </row>
+    <row r="19" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="41">
         <v>5</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="41">
         <v>7</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="42">
         <v>20</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="42">
         <v>25</v>
       </c>
-      <c r="H19" s="58">
+      <c r="H19" s="50">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="50">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-    </row>
-    <row r="20" spans="2:18" ht="15" customHeight="1">
-      <c r="B20" s="43">
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+    </row>
+    <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="40">
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="41">
         <v>50</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="41">
         <v>43</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="42">
         <v>15</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="42">
         <v>15</v>
       </c>
-      <c r="H20" s="58">
+      <c r="H20" s="50">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="I20" s="58">
+      <c r="I20" s="50">
         <f t="shared" si="0"/>
         <v>645</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="41">
         <v>20</v>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="41">
         <v>25</v>
       </c>
-      <c r="L20" s="44">
+      <c r="L20" s="41">
         <v>50</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="42">
         <v>35</v>
       </c>
-      <c r="N20" s="58">
+      <c r="N20" s="50">
         <f>J20*L20</f>
         <v>1000</v>
       </c>
-      <c r="O20" s="58">
+      <c r="O20" s="50">
         <f>K20*M20</f>
         <v>875</v>
       </c>
-      <c r="P20" s="58">
+      <c r="P20" s="50">
         <f>H20+N20</f>
         <v>1750</v>
       </c>
-      <c r="Q20" s="58">
+      <c r="Q20" s="50">
         <f>I20+O20</f>
         <v>1520</v>
       </c>
-      <c r="R20" s="58">
+      <c r="R20" s="50">
         <f>Q20-P20</f>
         <v>-230</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="15" customHeight="1">
-      <c r="B21" s="43">
+    <row r="21" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="40">
         <v>2.1</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="41">
         <v>20</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="41">
         <v>20</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="42">
         <v>15</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="42">
         <v>15</v>
       </c>
-      <c r="H21" s="58">
+      <c r="H21" s="50">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="50">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-    </row>
-    <row r="22" spans="2:18" ht="15" customHeight="1">
-      <c r="B22" s="43" t="s">
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+    </row>
+    <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="40" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="41">
         <v>10</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="41">
         <v>10</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="42">
         <v>15</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="42">
         <v>15</v>
       </c>
-      <c r="H22" s="58">
+      <c r="H22" s="50">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="50">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-    </row>
-    <row r="23" spans="2:18" ht="15" customHeight="1">
-      <c r="B23" s="43" t="s">
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+    </row>
+    <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="40" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="41">
         <v>10</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="41">
         <v>10</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="42">
         <v>15</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="42">
         <v>15</v>
       </c>
-      <c r="H23" s="58">
+      <c r="H23" s="50">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="50">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-    </row>
-    <row r="24" spans="2:18" ht="15" customHeight="1">
-      <c r="B24" s="43">
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+    </row>
+    <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="40">
         <v>2.2000000000000002</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="41">
         <v>20</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="41">
         <v>15</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="42">
         <v>15</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="42">
         <v>15</v>
       </c>
-      <c r="H24" s="58">
+      <c r="H24" s="50">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="50">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-    </row>
-    <row r="25" spans="2:18" ht="15" customHeight="1">
-      <c r="B25" s="43" t="s">
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+    </row>
+    <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="40" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="41">
         <v>10</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="41">
         <v>9</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="42">
         <v>15</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="42">
         <v>15</v>
       </c>
-      <c r="H25" s="58">
+      <c r="H25" s="50">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="50">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-    </row>
-    <row r="26" spans="2:18" ht="15" customHeight="1">
-      <c r="B26" s="43" t="s">
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+    </row>
+    <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="44">
+      <c r="D26" s="41">
         <v>10</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="41">
         <v>6</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="42">
         <v>15</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="42">
         <v>15</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H26" s="50">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I26" s="58">
+      <c r="I26" s="50">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-    </row>
-    <row r="27" spans="2:18" ht="15" customHeight="1">
-      <c r="B27" s="43">
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+    </row>
+    <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="40">
         <v>2.2999999999999998</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="44">
+      <c r="D27" s="41">
         <v>10</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="41">
         <v>8</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="42">
         <v>15</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="42">
         <v>15</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H27" s="50">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="50">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-    </row>
-    <row r="28" spans="2:18" ht="15" customHeight="1">
-      <c r="B28" s="43" t="s">
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+    </row>
+    <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="40" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="41">
         <v>5</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="41">
         <v>5</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="42">
         <v>15</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="42">
         <v>15</v>
       </c>
-      <c r="H28" s="58">
+      <c r="H28" s="50">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="I28" s="58">
+      <c r="I28" s="50">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-    </row>
-    <row r="29" spans="2:18" ht="15" customHeight="1">
-      <c r="B29" s="43" t="s">
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+    </row>
+    <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="40" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="44">
+      <c r="D29" s="41">
         <v>5</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="41">
         <v>3</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="42">
         <v>15</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="42">
         <v>15</v>
       </c>
-      <c r="H29" s="58">
+      <c r="H29" s="50">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="50">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F9E4F3-31CB-475C-8CB9-7DACAF7F9883}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.25" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="24.875" style="66"/>
+    <col min="4" max="4" width="24.875" style="81"/>
+    <col min="5" max="5" width="42.5" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="24.875" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="67">
+        <v>1</v>
+      </c>
+      <c r="B2" s="67">
+        <v>1</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="76">
+        <v>24000</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="67">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="68">
+        <v>5</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="77">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="67">
+        <f t="shared" ref="A4:A26" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="77">
+        <v>0</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="64"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="64"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="68">
+        <v>1</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="77">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="64"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="67">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="68">
+        <v>1</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="77">
+        <v>200</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="64"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="67">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="68">
+        <v>11</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="77">
+        <v>110</v>
+      </c>
+      <c r="E7" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="64"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="67">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="77">
+        <v>0</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="64"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="67">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="68">
+        <v>1</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="77">
+        <v>150</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="64"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="67">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="68">
+        <v>1</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="77">
+        <v>150</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="64"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="67">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="68">
+        <v>1</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="77">
+        <v>0</v>
+      </c>
+      <c r="E11" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="69"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="64"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="67">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="67">
+        <v>1</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="76">
+        <v>0</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="67">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="67">
+        <v>1</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="76">
+        <v>0</v>
+      </c>
+      <c r="E13" s="73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="67">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="67">
+        <v>1</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="76">
+        <v>0</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="67">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="67">
+        <v>1</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="78">
+        <v>500</v>
+      </c>
+      <c r="E15" s="73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="67">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="67">
+        <v>1</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="78">
+        <v>0</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="67">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="67">
+        <v>1</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="78">
+        <v>0</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="67">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="67">
+        <v>1</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="78">
+        <v>0</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="67">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="67">
+        <v>1</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="78">
+        <v>500</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="67">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="67">
+        <v>1</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="78">
+        <v>300</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="67">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="67">
+        <v>1</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="78">
+        <v>150</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="67">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="67">
+        <v>1</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="78">
+        <v>3.5</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="67">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="67">
+        <v>1</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="78">
+        <v>32.9</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="67">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="67">
+        <v>1</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="78">
+        <v>8.25</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="67">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="67">
+        <v>1</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="78">
+        <v>25</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="67">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="67">
+        <v>1</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="78">
+        <v>25</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="79"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="80">
+        <f>SUM(D2:D26)</f>
+        <v>29154.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Project-Budget.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Project-Budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B98A1D-446A-48FE-AFC3-AE35EE98EF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEC5F08-8BB7-4E3C-96AD-86424D3EFAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="350">
   <si>
     <t>https://corporatefinanceinstitute.com/</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>=D12+D17+D25+D126+D135</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1139,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(#,##0_)_%;\(#,##0\)_%;_(&quot;–&quot;_)_%;_(@_)_%"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1316,7 +1319,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1350,6 +1353,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1620,7 +1635,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1759,51 +1774,45 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="23" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1824,6 +1833,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2369,8 +2406,8 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2384,7 +2421,7 @@
     <col min="14" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -2399,7 +2436,7 @@
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -2414,7 +2451,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
@@ -2429,7 +2466,7 @@
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
@@ -2444,7 +2481,7 @@
       <c r="L4" s="12"/>
       <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -2459,7 +2496,7 @@
       <c r="L5" s="12"/>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -2474,7 +2511,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
@@ -2489,7 +2526,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
@@ -2504,7 +2541,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
@@ -2537,7 +2574,7 @@
     <row r="11" spans="1:13" ht="107.4" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A11" s="7"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="84" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="7"/>
@@ -2568,7 +2605,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="15"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="7"/>
       <c r="B13" s="14"/>
       <c r="C13" s="19" t="s">
@@ -2585,7 +2622,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="14"/>
       <c r="C14" s="7"/>
@@ -2600,7 +2637,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="14"/>
       <c r="C15" s="21" t="s">
@@ -2617,7 +2654,7 @@
       <c r="L15" s="20"/>
       <c r="M15" s="15"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="14"/>
       <c r="C16" s="22"/>
@@ -2632,7 +2669,7 @@
       <c r="L16" s="20"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="14"/>
       <c r="C17" s="22"/>
@@ -2647,7 +2684,7 @@
       <c r="L17" s="20"/>
       <c r="M17" s="15"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="14"/>
       <c r="C18" s="22"/>
@@ -2662,7 +2699,7 @@
       <c r="L18" s="20"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="14"/>
       <c r="C19" s="22"/>
@@ -2677,7 +2714,7 @@
       <c r="L19" s="20"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="14"/>
       <c r="C20" s="22"/>
@@ -2692,7 +2729,7 @@
       <c r="L20" s="20"/>
       <c r="M20" s="15"/>
     </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="14"/>
       <c r="C21" s="23"/>
@@ -2707,7 +2744,7 @@
       <c r="L21" s="20"/>
       <c r="M21" s="15"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7"/>
       <c r="B22" s="14"/>
       <c r="C22" s="23"/>
@@ -2722,7 +2759,7 @@
       <c r="L22" s="20"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="14"/>
       <c r="C23" s="23"/>
@@ -2737,7 +2774,7 @@
       <c r="L23" s="20"/>
       <c r="M23" s="15"/>
     </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
       <c r="B24" s="14"/>
       <c r="C24" s="23"/>
@@ -2752,7 +2789,7 @@
       <c r="L24" s="20"/>
       <c r="M24" s="15"/>
     </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7"/>
       <c r="B25" s="14"/>
       <c r="C25" s="23"/>
@@ -2767,7 +2804,7 @@
       <c r="L25" s="20"/>
       <c r="M25" s="15"/>
     </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="14"/>
       <c r="C26" s="24"/>
@@ -2782,7 +2819,7 @@
       <c r="L26" s="20"/>
       <c r="M26" s="15"/>
     </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="14"/>
       <c r="C27" s="24"/>
@@ -2797,7 +2834,7 @@
       <c r="L27" s="20"/>
       <c r="M27" s="15"/>
     </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7"/>
       <c r="B28" s="14"/>
       <c r="C28" s="25"/>
@@ -2812,7 +2849,7 @@
       <c r="L28" s="20"/>
       <c r="M28" s="15"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7"/>
       <c r="B29" s="14"/>
       <c r="C29" s="26"/>
@@ -2827,7 +2864,7 @@
       <c r="L29" s="20"/>
       <c r="M29" s="15"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
       <c r="B30" s="14"/>
       <c r="C30" s="26"/>
@@ -2842,7 +2879,7 @@
       <c r="L30" s="20"/>
       <c r="M30" s="15"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="14"/>
       <c r="C31" s="27" t="s">
@@ -2859,7 +2896,7 @@
       <c r="L31" s="28"/>
       <c r="M31" s="15"/>
     </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7"/>
       <c r="B32" s="14"/>
       <c r="C32" s="29" t="s">
@@ -2876,7 +2913,7 @@
       <c r="L32" s="30"/>
       <c r="M32" s="15"/>
     </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7"/>
       <c r="B33" s="14"/>
       <c r="C33" s="29" t="s">
@@ -2893,7 +2930,7 @@
       <c r="L33" s="30"/>
       <c r="M33" s="15"/>
     </row>
-    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7"/>
       <c r="B34" s="14"/>
       <c r="C34" s="29" t="s">
@@ -2910,7 +2947,7 @@
       <c r="L34" s="30"/>
       <c r="M34" s="15"/>
     </row>
-    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7"/>
       <c r="B35" s="14"/>
       <c r="C35" s="29" t="s">
@@ -2927,7 +2964,7 @@
       <c r="L35" s="30"/>
       <c r="M35" s="15"/>
     </row>
-    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7"/>
       <c r="B36" s="14"/>
       <c r="C36" s="29" t="s">
@@ -2944,7 +2981,7 @@
       <c r="L36" s="30"/>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7"/>
       <c r="B37" s="14"/>
       <c r="C37" s="29"/>
@@ -2959,7 +2996,7 @@
       <c r="L37" s="30"/>
       <c r="M37" s="15"/>
     </row>
-    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7"/>
       <c r="B38" s="14"/>
       <c r="C38" s="29" t="s">
@@ -2976,7 +3013,7 @@
       <c r="L38" s="30"/>
       <c r="M38" s="15"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
       <c r="B39" s="31"/>
       <c r="C39" s="32"/>
@@ -2993,7 +3030,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -3023,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3032,7 +3069,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="95.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="95" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="93" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="1" bestFit="1" customWidth="1"/>
@@ -3049,10 +3086,10 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="35" customFormat="1" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" s="35" customFormat="1" ht="55.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="88"/>
+      <c r="D1" s="86"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -3068,12 +3105,12 @@
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
     </row>
-    <row r="3" spans="2:18" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="34"/>
       <c r="C3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="89"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="34"/>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -3089,10 +3126,10 @@
       <c r="Q3" s="34"/>
       <c r="R3" s="34"/>
     </row>
-    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
-      <c r="D4" s="90"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
@@ -3108,20 +3145,19 @@
       <c r="Q4" s="36"/>
       <c r="R4" s="36"/>
     </row>
-    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="49"/>
-      <c r="D5" s="91"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="49"/>
       <c r="F5" s="49" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="49"/>
-      <c r="H5" s="50">
-        <f>D10+D22</f>
-        <v>5</v>
+      <c r="H5" s="94" t="s">
+        <v>349</v>
       </c>
       <c r="I5" s="49" t="s">
         <v>4</v>
@@ -3144,12 +3180,12 @@
       <c r="Q5" s="51"/>
       <c r="R5" s="53"/>
     </row>
-    <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="54" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="55"/>
-      <c r="D6" s="92"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="55"/>
       <c r="F6" s="56" t="s">
         <v>7</v>
@@ -3175,10 +3211,10 @@
       <c r="Q6" s="59"/>
       <c r="R6" s="60"/>
     </row>
-    <row r="7" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="43"/>
       <c r="C7" s="38"/>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="91" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="42"/>
@@ -3200,14 +3236,14 @@
       <c r="Q7" s="42"/>
       <c r="R7" s="44"/>
     </row>
-    <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="91" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="42"/>
@@ -3240,7 +3276,7 @@
     <row r="9" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="45"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="92" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="46" t="s">
@@ -3291,9 +3327,9 @@
       <c r="C10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="87">
+      <c r="F10" s="85">
         <v>1.06</v>
       </c>
       <c r="G10" s="41"/>
@@ -3330,48 +3366,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="39">
+    <row r="11" spans="2:18" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="96">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="87">
-        <v>1.06</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="48">
+      <c r="D11" s="105"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="98">
+        <v>1.06</v>
+      </c>
+      <c r="G11" s="99"/>
+      <c r="H11" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="100">
         <f t="shared" ref="I11:I74" si="1">E11*G11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="48">
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="100">
         <f t="shared" ref="N11:N74" si="2">J11*L11</f>
         <v>0</v>
       </c>
-      <c r="O11" s="48">
+      <c r="O11" s="100">
         <f t="shared" ref="O11:O74" si="3">K11*M11</f>
         <v>0</v>
       </c>
-      <c r="P11" s="48">
+      <c r="P11" s="100">
         <f t="shared" ref="P11:P74" si="4">H11+N11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="100">
         <f t="shared" ref="Q11:Q74" si="5">I11+O11</f>
         <v>0</v>
       </c>
-      <c r="R11" s="48">
+      <c r="R11" s="100">
         <f t="shared" ref="R11:R74" si="6">Q11-P11</f>
         <v>0</v>
       </c>
@@ -3383,15 +3419,17 @@
       <c r="C12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="103">
+        <v>1</v>
+      </c>
       <c r="E12" s="40"/>
-      <c r="F12" s="87">
+      <c r="F12" s="85">
         <v>1.06</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="I12" s="48">
         <f t="shared" si="1"/>
@@ -3411,7 +3449,7 @@
       </c>
       <c r="P12" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Q12" s="48">
         <f t="shared" si="5"/>
@@ -3419,7 +3457,7 @@
       </c>
       <c r="R12" s="48">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="13" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -3433,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="40"/>
-      <c r="F13" s="87">
+      <c r="F13" s="85">
         <v>1.06</v>
       </c>
       <c r="G13" s="41"/>
@@ -3481,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="40"/>
-      <c r="F14" s="87">
+      <c r="F14" s="85">
         <v>1.06</v>
       </c>
       <c r="G14" s="41"/>
@@ -3525,11 +3563,11 @@
       <c r="C15" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="41">
         <v>2</v>
       </c>
       <c r="E15" s="40"/>
-      <c r="F15" s="87">
+      <c r="F15" s="85">
         <v>1.06</v>
       </c>
       <c r="G15" s="41"/>
@@ -3573,9 +3611,11 @@
       <c r="C16" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="103">
+        <v>0</v>
+      </c>
       <c r="E16" s="40"/>
-      <c r="F16" s="87">
+      <c r="F16" s="85">
         <v>1.06</v>
       </c>
       <c r="G16" s="41"/>
@@ -3612,48 +3652,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="39">
+    <row r="17" spans="2:18" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="96">
         <v>1.2</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="87">
-        <v>1.06</v>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="48">
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="98">
+        <v>1.06</v>
+      </c>
+      <c r="G17" s="99"/>
+      <c r="H17" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="48">
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="48">
+      <c r="O17" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P17" s="48">
+      <c r="P17" s="100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="48">
+      <c r="Q17" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R17" s="48">
+      <c r="R17" s="100">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -3665,11 +3705,11 @@
       <c r="C18" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="87">
+      <c r="D18" s="104">
         <v>3</v>
       </c>
       <c r="E18" s="40"/>
-      <c r="F18" s="87">
+      <c r="F18" s="85">
         <v>1.06</v>
       </c>
       <c r="G18" s="41"/>
@@ -3713,11 +3753,11 @@
       <c r="C19" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="87" t="s">
-        <v>347</v>
+      <c r="D19" s="104">
+        <v>1</v>
       </c>
       <c r="E19" s="40"/>
-      <c r="F19" s="87">
+      <c r="F19" s="85">
         <v>1.06</v>
       </c>
       <c r="G19" s="41"/>
@@ -3761,11 +3801,11 @@
       <c r="C20" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="87" t="s">
-        <v>347</v>
+      <c r="D20" s="104">
+        <v>1</v>
       </c>
       <c r="E20" s="40"/>
-      <c r="F20" s="87">
+      <c r="F20" s="85">
         <v>1.06</v>
       </c>
       <c r="G20" s="41"/>
@@ -3809,11 +3849,11 @@
       <c r="C21" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="87" t="s">
-        <v>347</v>
+      <c r="D21" s="104">
+        <v>1</v>
       </c>
       <c r="E21" s="40"/>
-      <c r="F21" s="87">
+      <c r="F21" s="85">
         <v>1.06</v>
       </c>
       <c r="G21" s="41"/>
@@ -3850,18 +3890,18 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="39" t="s">
         <v>128</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="87" t="s">
-        <v>346</v>
+      <c r="D22" s="104">
+        <v>5</v>
       </c>
       <c r="E22" s="40"/>
-      <c r="F22" s="87">
+      <c r="F22" s="85">
         <v>1.06</v>
       </c>
       <c r="G22" s="41"/>
@@ -3905,11 +3945,11 @@
       <c r="C23" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="87" t="s">
-        <v>343</v>
+      <c r="D23" s="104">
+        <v>2</v>
       </c>
       <c r="E23" s="40"/>
-      <c r="F23" s="87">
+      <c r="F23" s="85">
         <v>1.06</v>
       </c>
       <c r="G23" s="41"/>
@@ -3953,9 +3993,9 @@
       <c r="C24" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="87"/>
+      <c r="D24" s="104"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="87">
+      <c r="F24" s="85">
         <v>1.06</v>
       </c>
       <c r="G24" s="41"/>
@@ -3992,48 +4032,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="39">
+    <row r="25" spans="2:18" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="96">
         <v>1.3</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="87">
-        <v>1.06</v>
-      </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="48">
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="98">
+        <v>1.06</v>
+      </c>
+      <c r="G25" s="99"/>
+      <c r="H25" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="48">
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O25" s="48">
+      <c r="O25" s="100">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P25" s="48">
+      <c r="P25" s="100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="48">
+      <c r="Q25" s="100">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R25" s="48">
+      <c r="R25" s="100">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4049,7 +4089,7 @@
         <v>347</v>
       </c>
       <c r="E26" s="40"/>
-      <c r="F26" s="87">
+      <c r="F26" s="85">
         <v>1.06</v>
       </c>
       <c r="G26" s="41"/>
@@ -4095,7 +4135,7 @@
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
-      <c r="F27" s="87">
+      <c r="F27" s="85">
         <v>1.06</v>
       </c>
       <c r="G27" s="41"/>
@@ -4143,7 +4183,7 @@
         <v>344</v>
       </c>
       <c r="E28" s="40"/>
-      <c r="F28" s="87">
+      <c r="F28" s="85">
         <v>1.06</v>
       </c>
       <c r="G28" s="41"/>
@@ -4191,7 +4231,7 @@
         <v>343</v>
       </c>
       <c r="E29" s="40"/>
-      <c r="F29" s="87">
+      <c r="F29" s="85">
         <v>1.06</v>
       </c>
       <c r="G29" s="41"/>
@@ -4237,7 +4277,7 @@
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
-      <c r="F30" s="87">
+      <c r="F30" s="85">
         <v>1.06</v>
       </c>
       <c r="G30" s="41"/>
@@ -4283,7 +4323,7 @@
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
-      <c r="F31" s="87">
+      <c r="F31" s="85">
         <v>1.06</v>
       </c>
       <c r="G31" s="41"/>
@@ -4329,7 +4369,7 @@
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
-      <c r="F32" s="87">
+      <c r="F32" s="85">
         <v>1.06</v>
       </c>
       <c r="G32" s="41"/>
@@ -4375,7 +4415,7 @@
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
-      <c r="F33" s="87">
+      <c r="F33" s="85">
         <v>1.06</v>
       </c>
       <c r="G33" s="41"/>
@@ -4423,7 +4463,7 @@
         <v>345</v>
       </c>
       <c r="E34" s="40"/>
-      <c r="F34" s="87">
+      <c r="F34" s="85">
         <v>1.06</v>
       </c>
       <c r="G34" s="41"/>
@@ -4469,7 +4509,7 @@
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="87">
+      <c r="F35" s="85">
         <v>1.06</v>
       </c>
       <c r="G35" s="41"/>
@@ -4515,7 +4555,7 @@
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
-      <c r="F36" s="87">
+      <c r="F36" s="85">
         <v>1.06</v>
       </c>
       <c r="G36" s="41"/>
@@ -4563,7 +4603,7 @@
         <v>344</v>
       </c>
       <c r="E37" s="40"/>
-      <c r="F37" s="87">
+      <c r="F37" s="85">
         <v>1.06</v>
       </c>
       <c r="G37" s="41"/>
@@ -4609,7 +4649,7 @@
       </c>
       <c r="D38" s="40"/>
       <c r="E38" s="40"/>
-      <c r="F38" s="87">
+      <c r="F38" s="85">
         <v>1.06</v>
       </c>
       <c r="G38" s="41"/>
@@ -4657,7 +4697,7 @@
         <v>343</v>
       </c>
       <c r="E39" s="40"/>
-      <c r="F39" s="87">
+      <c r="F39" s="85">
         <v>1.06</v>
       </c>
       <c r="G39" s="41"/>
@@ -4705,7 +4745,7 @@
         <v>347</v>
       </c>
       <c r="E40" s="40"/>
-      <c r="F40" s="87">
+      <c r="F40" s="85">
         <v>1.06</v>
       </c>
       <c r="G40" s="41"/>
@@ -4751,7 +4791,7 @@
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
-      <c r="F41" s="87">
+      <c r="F41" s="85">
         <v>1.06</v>
       </c>
       <c r="G41" s="41"/>
@@ -4797,7 +4837,7 @@
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
-      <c r="F42" s="87">
+      <c r="F42" s="85">
         <v>1.06</v>
       </c>
       <c r="G42" s="41"/>
@@ -4845,7 +4885,7 @@
         <v>343</v>
       </c>
       <c r="E43" s="40"/>
-      <c r="F43" s="87">
+      <c r="F43" s="85">
         <v>1.06</v>
       </c>
       <c r="G43" s="41"/>
@@ -4893,7 +4933,7 @@
         <v>344</v>
       </c>
       <c r="E44" s="40"/>
-      <c r="F44" s="87">
+      <c r="F44" s="85">
         <v>1.06</v>
       </c>
       <c r="G44" s="41"/>
@@ -4941,7 +4981,7 @@
         <v>345</v>
       </c>
       <c r="E45" s="40"/>
-      <c r="F45" s="87">
+      <c r="F45" s="85">
         <v>1.06</v>
       </c>
       <c r="G45" s="41"/>
@@ -4989,7 +5029,7 @@
         <v>344</v>
       </c>
       <c r="E46" s="40"/>
-      <c r="F46" s="87">
+      <c r="F46" s="85">
         <v>1.06</v>
       </c>
       <c r="G46" s="41"/>
@@ -5037,7 +5077,7 @@
         <v>344</v>
       </c>
       <c r="E47" s="40"/>
-      <c r="F47" s="87">
+      <c r="F47" s="85">
         <v>1.06</v>
       </c>
       <c r="G47" s="41"/>
@@ -5085,7 +5125,7 @@
         <v>345</v>
       </c>
       <c r="E48" s="40"/>
-      <c r="F48" s="87">
+      <c r="F48" s="85">
         <v>1.06</v>
       </c>
       <c r="G48" s="41"/>
@@ -5133,7 +5173,7 @@
         <v>343</v>
       </c>
       <c r="E49" s="40"/>
-      <c r="F49" s="87">
+      <c r="F49" s="85">
         <v>1.06</v>
       </c>
       <c r="G49" s="41"/>
@@ -5179,7 +5219,7 @@
       </c>
       <c r="D50" s="40"/>
       <c r="E50" s="40"/>
-      <c r="F50" s="87">
+      <c r="F50" s="85">
         <v>1.06</v>
       </c>
       <c r="G50" s="41"/>
@@ -5227,7 +5267,7 @@
         <v>344</v>
       </c>
       <c r="E51" s="40"/>
-      <c r="F51" s="87">
+      <c r="F51" s="85">
         <v>1.06</v>
       </c>
       <c r="G51" s="41"/>
@@ -5273,7 +5313,7 @@
       </c>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
-      <c r="F52" s="87">
+      <c r="F52" s="85">
         <v>1.06</v>
       </c>
       <c r="G52" s="41"/>
@@ -5319,7 +5359,7 @@
       </c>
       <c r="D53" s="40"/>
       <c r="E53" s="40"/>
-      <c r="F53" s="87">
+      <c r="F53" s="85">
         <v>1.06</v>
       </c>
       <c r="G53" s="41"/>
@@ -5365,7 +5405,7 @@
       </c>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
-      <c r="F54" s="87">
+      <c r="F54" s="85">
         <v>1.06</v>
       </c>
       <c r="G54" s="41"/>
@@ -5413,7 +5453,7 @@
         <v>348</v>
       </c>
       <c r="E55" s="40"/>
-      <c r="F55" s="87">
+      <c r="F55" s="85">
         <v>1.06</v>
       </c>
       <c r="G55" s="41"/>
@@ -5461,7 +5501,7 @@
         <v>344</v>
       </c>
       <c r="E56" s="40"/>
-      <c r="F56" s="87">
+      <c r="F56" s="85">
         <v>1.06</v>
       </c>
       <c r="G56" s="41"/>
@@ -5509,7 +5549,7 @@
         <v>343</v>
       </c>
       <c r="E57" s="40"/>
-      <c r="F57" s="87">
+      <c r="F57" s="85">
         <v>1.06</v>
       </c>
       <c r="G57" s="41"/>
@@ -5557,7 +5597,7 @@
         <v>345</v>
       </c>
       <c r="E58" s="40"/>
-      <c r="F58" s="87">
+      <c r="F58" s="85">
         <v>1.06</v>
       </c>
       <c r="G58" s="41"/>
@@ -5603,7 +5643,7 @@
       </c>
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
-      <c r="F59" s="87">
+      <c r="F59" s="85">
         <v>1.06</v>
       </c>
       <c r="G59" s="41"/>
@@ -5651,7 +5691,7 @@
         <v>343</v>
       </c>
       <c r="E60" s="40"/>
-      <c r="F60" s="87">
+      <c r="F60" s="85">
         <v>1.06</v>
       </c>
       <c r="G60" s="41"/>
@@ -5699,7 +5739,7 @@
         <v>347</v>
       </c>
       <c r="E61" s="40"/>
-      <c r="F61" s="87">
+      <c r="F61" s="85">
         <v>1.06</v>
       </c>
       <c r="G61" s="41"/>
@@ -5745,7 +5785,7 @@
       </c>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
-      <c r="F62" s="87">
+      <c r="F62" s="85">
         <v>1.06</v>
       </c>
       <c r="G62" s="41"/>
@@ -5791,7 +5831,7 @@
       </c>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
-      <c r="F63" s="87">
+      <c r="F63" s="85">
         <v>1.06</v>
       </c>
       <c r="G63" s="41"/>
@@ -5837,7 +5877,7 @@
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
-      <c r="F64" s="87">
+      <c r="F64" s="85">
         <v>1.06</v>
       </c>
       <c r="G64" s="41"/>
@@ -5883,7 +5923,7 @@
       </c>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
-      <c r="F65" s="87">
+      <c r="F65" s="85">
         <v>1.06</v>
       </c>
       <c r="G65" s="41"/>
@@ -5931,7 +5971,7 @@
         <v>343</v>
       </c>
       <c r="E66" s="40"/>
-      <c r="F66" s="87">
+      <c r="F66" s="85">
         <v>1.06</v>
       </c>
       <c r="G66" s="41"/>
@@ -5977,7 +6017,7 @@
       </c>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
-      <c r="F67" s="87">
+      <c r="F67" s="85">
         <v>1.06</v>
       </c>
       <c r="G67" s="41"/>
@@ -6025,7 +6065,7 @@
         <v>347</v>
       </c>
       <c r="E68" s="40"/>
-      <c r="F68" s="87">
+      <c r="F68" s="85">
         <v>1.06</v>
       </c>
       <c r="G68" s="41"/>
@@ -6071,7 +6111,7 @@
       </c>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
-      <c r="F69" s="87">
+      <c r="F69" s="85">
         <v>1.06</v>
       </c>
       <c r="G69" s="41"/>
@@ -6117,7 +6157,7 @@
       </c>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
-      <c r="F70" s="87">
+      <c r="F70" s="85">
         <v>1.06</v>
       </c>
       <c r="G70" s="41"/>
@@ -6163,7 +6203,7 @@
       </c>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
-      <c r="F71" s="87">
+      <c r="F71" s="85">
         <v>1.06</v>
       </c>
       <c r="G71" s="41"/>
@@ -6211,7 +6251,7 @@
         <v>343</v>
       </c>
       <c r="E72" s="40"/>
-      <c r="F72" s="87">
+      <c r="F72" s="85">
         <v>1.06</v>
       </c>
       <c r="G72" s="41"/>
@@ -6259,7 +6299,7 @@
         <v>347</v>
       </c>
       <c r="E73" s="40"/>
-      <c r="F73" s="87">
+      <c r="F73" s="85">
         <v>1.06</v>
       </c>
       <c r="G73" s="41"/>
@@ -6305,7 +6345,7 @@
       </c>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
-      <c r="F74" s="87">
+      <c r="F74" s="85">
         <v>1.06</v>
       </c>
       <c r="G74" s="41"/>
@@ -6353,7 +6393,7 @@
         <v>347</v>
       </c>
       <c r="E75" s="40"/>
-      <c r="F75" s="87">
+      <c r="F75" s="85">
         <v>1.06</v>
       </c>
       <c r="G75" s="41"/>
@@ -6401,7 +6441,7 @@
         <v>344</v>
       </c>
       <c r="E76" s="40"/>
-      <c r="F76" s="87">
+      <c r="F76" s="85">
         <v>1.06</v>
       </c>
       <c r="G76" s="41"/>
@@ -6449,7 +6489,7 @@
         <v>343</v>
       </c>
       <c r="E77" s="40"/>
-      <c r="F77" s="87">
+      <c r="F77" s="85">
         <v>1.06</v>
       </c>
       <c r="G77" s="41"/>
@@ -6495,7 +6535,7 @@
       </c>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
-      <c r="F78" s="87">
+      <c r="F78" s="85">
         <v>1.06</v>
       </c>
       <c r="G78" s="41"/>
@@ -6543,7 +6583,7 @@
         <v>343</v>
       </c>
       <c r="E79" s="40"/>
-      <c r="F79" s="87">
+      <c r="F79" s="85">
         <v>1.06</v>
       </c>
       <c r="G79" s="41"/>
@@ -6591,7 +6631,7 @@
         <v>343</v>
       </c>
       <c r="E80" s="40"/>
-      <c r="F80" s="87">
+      <c r="F80" s="85">
         <v>1.06</v>
       </c>
       <c r="G80" s="41"/>
@@ -6639,7 +6679,7 @@
         <v>344</v>
       </c>
       <c r="E81" s="40"/>
-      <c r="F81" s="87">
+      <c r="F81" s="85">
         <v>1.06</v>
       </c>
       <c r="G81" s="41"/>
@@ -6687,7 +6727,7 @@
         <v>347</v>
       </c>
       <c r="E82" s="40"/>
-      <c r="F82" s="87">
+      <c r="F82" s="85">
         <v>1.06</v>
       </c>
       <c r="G82" s="41"/>
@@ -6733,7 +6773,7 @@
       </c>
       <c r="D83" s="40"/>
       <c r="E83" s="40"/>
-      <c r="F83" s="87">
+      <c r="F83" s="85">
         <v>1.06</v>
       </c>
       <c r="G83" s="41"/>
@@ -6779,7 +6819,7 @@
       </c>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
-      <c r="F84" s="87">
+      <c r="F84" s="85">
         <v>1.06</v>
       </c>
       <c r="G84" s="41"/>
@@ -6825,7 +6865,7 @@
       </c>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
-      <c r="F85" s="87">
+      <c r="F85" s="85">
         <v>1.06</v>
       </c>
       <c r="G85" s="41"/>
@@ -6873,7 +6913,7 @@
         <v>343</v>
       </c>
       <c r="E86" s="40"/>
-      <c r="F86" s="87">
+      <c r="F86" s="85">
         <v>1.06</v>
       </c>
       <c r="G86" s="41"/>
@@ -6921,7 +6961,7 @@
         <v>347</v>
       </c>
       <c r="E87" s="40"/>
-      <c r="F87" s="87">
+      <c r="F87" s="85">
         <v>1.06</v>
       </c>
       <c r="G87" s="41"/>
@@ -6969,7 +7009,7 @@
         <v>343</v>
       </c>
       <c r="E88" s="40"/>
-      <c r="F88" s="87">
+      <c r="F88" s="85">
         <v>1.06</v>
       </c>
       <c r="G88" s="41"/>
@@ -7015,7 +7055,7 @@
       </c>
       <c r="D89" s="40"/>
       <c r="E89" s="40"/>
-      <c r="F89" s="87">
+      <c r="F89" s="85">
         <v>1.06</v>
       </c>
       <c r="G89" s="41"/>
@@ -7061,7 +7101,7 @@
       </c>
       <c r="D90" s="40"/>
       <c r="E90" s="40"/>
-      <c r="F90" s="87">
+      <c r="F90" s="85">
         <v>1.06</v>
       </c>
       <c r="G90" s="41"/>
@@ -7107,7 +7147,7 @@
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
-      <c r="F91" s="87">
+      <c r="F91" s="85">
         <v>1.06</v>
       </c>
       <c r="G91" s="41"/>
@@ -7155,7 +7195,7 @@
         <v>343</v>
       </c>
       <c r="E92" s="40"/>
-      <c r="F92" s="87">
+      <c r="F92" s="85">
         <v>1.06</v>
       </c>
       <c r="G92" s="41"/>
@@ -7203,7 +7243,7 @@
         <v>344</v>
       </c>
       <c r="E93" s="40"/>
-      <c r="F93" s="87">
+      <c r="F93" s="85">
         <v>1.06</v>
       </c>
       <c r="G93" s="41"/>
@@ -7251,7 +7291,7 @@
         <v>344</v>
       </c>
       <c r="E94" s="40"/>
-      <c r="F94" s="87">
+      <c r="F94" s="85">
         <v>1.06</v>
       </c>
       <c r="G94" s="41"/>
@@ -7297,7 +7337,7 @@
       </c>
       <c r="D95" s="40"/>
       <c r="E95" s="40"/>
-      <c r="F95" s="87">
+      <c r="F95" s="85">
         <v>1.06</v>
       </c>
       <c r="G95" s="41"/>
@@ -7345,7 +7385,7 @@
         <v>347</v>
       </c>
       <c r="E96" s="40"/>
-      <c r="F96" s="87">
+      <c r="F96" s="85">
         <v>1.06</v>
       </c>
       <c r="G96" s="41"/>
@@ -7391,7 +7431,7 @@
       </c>
       <c r="D97" s="40"/>
       <c r="E97" s="40"/>
-      <c r="F97" s="87">
+      <c r="F97" s="85">
         <v>1.06</v>
       </c>
       <c r="G97" s="41"/>
@@ -7437,7 +7477,7 @@
       </c>
       <c r="D98" s="40"/>
       <c r="E98" s="40"/>
-      <c r="F98" s="87">
+      <c r="F98" s="85">
         <v>1.06</v>
       </c>
       <c r="G98" s="41"/>
@@ -7483,7 +7523,7 @@
       </c>
       <c r="D99" s="40"/>
       <c r="E99" s="40"/>
-      <c r="F99" s="87">
+      <c r="F99" s="85">
         <v>1.06</v>
       </c>
       <c r="G99" s="41"/>
@@ -7529,7 +7569,7 @@
       </c>
       <c r="D100" s="40"/>
       <c r="E100" s="40"/>
-      <c r="F100" s="87">
+      <c r="F100" s="85">
         <v>1.06</v>
       </c>
       <c r="G100" s="41"/>
@@ -7575,7 +7615,7 @@
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
-      <c r="F101" s="87">
+      <c r="F101" s="85">
         <v>1.06</v>
       </c>
       <c r="G101" s="41"/>
@@ -7621,7 +7661,7 @@
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="40"/>
-      <c r="F102" s="87">
+      <c r="F102" s="85">
         <v>1.06</v>
       </c>
       <c r="G102" s="41"/>
@@ -7669,7 +7709,7 @@
         <v>345</v>
       </c>
       <c r="E103" s="40"/>
-      <c r="F103" s="87">
+      <c r="F103" s="85">
         <v>1.06</v>
       </c>
       <c r="G103" s="41"/>
@@ -7717,7 +7757,7 @@
         <v>346</v>
       </c>
       <c r="E104" s="40"/>
-      <c r="F104" s="87">
+      <c r="F104" s="85">
         <v>1.06</v>
       </c>
       <c r="G104" s="41"/>
@@ -7765,7 +7805,7 @@
         <v>346</v>
       </c>
       <c r="E105" s="40"/>
-      <c r="F105" s="87">
+      <c r="F105" s="85">
         <v>1.06</v>
       </c>
       <c r="G105" s="41"/>
@@ -7813,7 +7853,7 @@
         <v>344</v>
       </c>
       <c r="E106" s="40"/>
-      <c r="F106" s="87">
+      <c r="F106" s="85">
         <v>1.06</v>
       </c>
       <c r="G106" s="41"/>
@@ -7859,7 +7899,7 @@
       </c>
       <c r="D107" s="40"/>
       <c r="E107" s="40"/>
-      <c r="F107" s="87">
+      <c r="F107" s="85">
         <v>1.06</v>
       </c>
       <c r="G107" s="41"/>
@@ -7907,7 +7947,7 @@
         <v>347</v>
       </c>
       <c r="E108" s="40"/>
-      <c r="F108" s="87">
+      <c r="F108" s="85">
         <v>1.06</v>
       </c>
       <c r="G108" s="41"/>
@@ -7953,7 +7993,7 @@
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="40"/>
-      <c r="F109" s="87">
+      <c r="F109" s="85">
         <v>1.06</v>
       </c>
       <c r="G109" s="41"/>
@@ -7999,7 +8039,7 @@
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="40"/>
-      <c r="F110" s="87">
+      <c r="F110" s="85">
         <v>1.06</v>
       </c>
       <c r="G110" s="41"/>
@@ -8047,7 +8087,7 @@
         <v>347</v>
       </c>
       <c r="E111" s="40"/>
-      <c r="F111" s="87">
+      <c r="F111" s="85">
         <v>1.06</v>
       </c>
       <c r="G111" s="41"/>
@@ -8095,7 +8135,7 @@
         <v>347</v>
       </c>
       <c r="E112" s="40"/>
-      <c r="F112" s="87">
+      <c r="F112" s="85">
         <v>1.06</v>
       </c>
       <c r="G112" s="41"/>
@@ -8141,7 +8181,7 @@
       </c>
       <c r="D113" s="40"/>
       <c r="E113" s="40"/>
-      <c r="F113" s="87">
+      <c r="F113" s="85">
         <v>1.06</v>
       </c>
       <c r="G113" s="41"/>
@@ -8189,7 +8229,7 @@
         <v>343</v>
       </c>
       <c r="E114" s="40"/>
-      <c r="F114" s="87">
+      <c r="F114" s="85">
         <v>1.06</v>
       </c>
       <c r="G114" s="41"/>
@@ -8235,7 +8275,7 @@
       </c>
       <c r="D115" s="40"/>
       <c r="E115" s="40"/>
-      <c r="F115" s="87">
+      <c r="F115" s="85">
         <v>1.06</v>
       </c>
       <c r="G115" s="41"/>
@@ -8283,7 +8323,7 @@
         <v>344</v>
       </c>
       <c r="E116" s="40"/>
-      <c r="F116" s="87">
+      <c r="F116" s="85">
         <v>1.06</v>
       </c>
       <c r="G116" s="41"/>
@@ -8329,7 +8369,7 @@
       </c>
       <c r="D117" s="40"/>
       <c r="E117" s="40"/>
-      <c r="F117" s="87">
+      <c r="F117" s="85">
         <v>1.06</v>
       </c>
       <c r="G117" s="41"/>
@@ -8377,7 +8417,7 @@
         <v>347</v>
       </c>
       <c r="E118" s="40"/>
-      <c r="F118" s="87">
+      <c r="F118" s="85">
         <v>1.06</v>
       </c>
       <c r="G118" s="41"/>
@@ -8425,7 +8465,7 @@
         <v>347</v>
       </c>
       <c r="E119" s="40"/>
-      <c r="F119" s="87">
+      <c r="F119" s="85">
         <v>1.06</v>
       </c>
       <c r="G119" s="41"/>
@@ -8473,7 +8513,7 @@
         <v>343</v>
       </c>
       <c r="E120" s="40"/>
-      <c r="F120" s="87">
+      <c r="F120" s="85">
         <v>1.06</v>
       </c>
       <c r="G120" s="41"/>
@@ -8521,7 +8561,7 @@
         <v>343</v>
       </c>
       <c r="E121" s="40"/>
-      <c r="F121" s="87">
+      <c r="F121" s="85">
         <v>1.06</v>
       </c>
       <c r="G121" s="41"/>
@@ -8569,7 +8609,7 @@
         <v>344</v>
       </c>
       <c r="E122" s="40"/>
-      <c r="F122" s="87">
+      <c r="F122" s="85">
         <v>1.06</v>
       </c>
       <c r="G122" s="41"/>
@@ -8615,7 +8655,7 @@
       </c>
       <c r="D123" s="40"/>
       <c r="E123" s="40"/>
-      <c r="F123" s="87">
+      <c r="F123" s="85">
         <v>1.06</v>
       </c>
       <c r="G123" s="41"/>
@@ -8663,7 +8703,7 @@
         <v>343</v>
       </c>
       <c r="E124" s="40"/>
-      <c r="F124" s="87">
+      <c r="F124" s="85">
         <v>1.06</v>
       </c>
       <c r="G124" s="41"/>
@@ -8711,7 +8751,7 @@
         <v>347</v>
       </c>
       <c r="E125" s="40"/>
-      <c r="F125" s="87">
+      <c r="F125" s="85">
         <v>1.06</v>
       </c>
       <c r="G125" s="41"/>
@@ -8748,48 +8788,48 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="126" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="39">
+    <row r="126" spans="2:18" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="96">
         <v>1.4</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="97" t="s">
         <v>317</v>
       </c>
-      <c r="D126" s="40"/>
-      <c r="E126" s="40"/>
-      <c r="F126" s="87">
-        <v>1.06</v>
-      </c>
-      <c r="G126" s="41"/>
-      <c r="H126" s="48">
+      <c r="D126" s="95"/>
+      <c r="E126" s="95"/>
+      <c r="F126" s="98">
+        <v>1.06</v>
+      </c>
+      <c r="G126" s="99"/>
+      <c r="H126" s="100">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I126" s="48">
+      <c r="I126" s="100">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J126" s="40"/>
-      <c r="K126" s="40"/>
-      <c r="L126" s="41"/>
-      <c r="M126" s="41"/>
-      <c r="N126" s="48">
+      <c r="J126" s="95"/>
+      <c r="K126" s="95"/>
+      <c r="L126" s="99"/>
+      <c r="M126" s="99"/>
+      <c r="N126" s="100">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O126" s="48">
+      <c r="O126" s="100">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P126" s="48">
+      <c r="P126" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q126" s="48">
+      <c r="Q126" s="100">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R126" s="48">
+      <c r="R126" s="100">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -8805,7 +8845,7 @@
         <v>347</v>
       </c>
       <c r="E127" s="40"/>
-      <c r="F127" s="87">
+      <c r="F127" s="85">
         <v>1.06</v>
       </c>
       <c r="G127" s="41"/>
@@ -8851,7 +8891,7 @@
       </c>
       <c r="D128" s="40"/>
       <c r="E128" s="40"/>
-      <c r="F128" s="87">
+      <c r="F128" s="85">
         <v>1.06</v>
       </c>
       <c r="G128" s="41"/>
@@ -8897,7 +8937,7 @@
       </c>
       <c r="D129" s="40"/>
       <c r="E129" s="40"/>
-      <c r="F129" s="87">
+      <c r="F129" s="85">
         <v>1.06</v>
       </c>
       <c r="G129" s="41"/>
@@ -8943,7 +8983,7 @@
       </c>
       <c r="D130" s="40"/>
       <c r="E130" s="40"/>
-      <c r="F130" s="87">
+      <c r="F130" s="85">
         <v>1.06</v>
       </c>
       <c r="G130" s="41"/>
@@ -8991,7 +9031,7 @@
         <v>343</v>
       </c>
       <c r="E131" s="40"/>
-      <c r="F131" s="87">
+      <c r="F131" s="85">
         <v>1.06</v>
       </c>
       <c r="G131" s="41"/>
@@ -9039,7 +9079,7 @@
         <v>343</v>
       </c>
       <c r="E132" s="40"/>
-      <c r="F132" s="87">
+      <c r="F132" s="85">
         <v>1.06</v>
       </c>
       <c r="G132" s="41"/>
@@ -9087,7 +9127,7 @@
         <v>347</v>
       </c>
       <c r="E133" s="40"/>
-      <c r="F133" s="87">
+      <c r="F133" s="85">
         <v>1.06</v>
       </c>
       <c r="G133" s="41"/>
@@ -9135,7 +9175,7 @@
         <v>347</v>
       </c>
       <c r="E134" s="40"/>
-      <c r="F134" s="87">
+      <c r="F134" s="85">
         <v>1.06</v>
       </c>
       <c r="G134" s="41"/>
@@ -9172,48 +9212,48 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="135" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="39">
+    <row r="135" spans="2:18" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="96">
         <v>1.5</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="97" t="s">
         <v>332</v>
       </c>
-      <c r="D135" s="40"/>
-      <c r="E135" s="40"/>
-      <c r="F135" s="87">
-        <v>1.06</v>
-      </c>
-      <c r="G135" s="41"/>
-      <c r="H135" s="48">
+      <c r="D135" s="95"/>
+      <c r="E135" s="95"/>
+      <c r="F135" s="98">
+        <v>1.06</v>
+      </c>
+      <c r="G135" s="99"/>
+      <c r="H135" s="100">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I135" s="48">
+      <c r="I135" s="100">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J135" s="40"/>
-      <c r="K135" s="40"/>
-      <c r="L135" s="41"/>
-      <c r="M135" s="41"/>
-      <c r="N135" s="48">
+      <c r="J135" s="95"/>
+      <c r="K135" s="95"/>
+      <c r="L135" s="99"/>
+      <c r="M135" s="99"/>
+      <c r="N135" s="100">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O135" s="48">
+      <c r="O135" s="100">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P135" s="48">
+      <c r="P135" s="100">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q135" s="48">
+      <c r="Q135" s="100">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="R135" s="48">
+      <c r="R135" s="100">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -9229,7 +9269,7 @@
         <v>343</v>
       </c>
       <c r="E136" s="40"/>
-      <c r="F136" s="87">
+      <c r="F136" s="85">
         <v>1.06</v>
       </c>
       <c r="G136" s="41"/>
@@ -9277,7 +9317,7 @@
         <v>343</v>
       </c>
       <c r="E137" s="40"/>
-      <c r="F137" s="87">
+      <c r="F137" s="85">
         <v>1.06</v>
       </c>
       <c r="G137" s="41"/>
@@ -9325,7 +9365,7 @@
         <v>347</v>
       </c>
       <c r="E138" s="40"/>
-      <c r="F138" s="87">
+      <c r="F138" s="85">
         <v>1.06</v>
       </c>
       <c r="G138" s="41"/>
@@ -9373,7 +9413,7 @@
         <v>347</v>
       </c>
       <c r="E139" s="40"/>
-      <c r="F139" s="87">
+      <c r="F139" s="85">
         <v>1.06</v>
       </c>
       <c r="G139" s="41"/>
@@ -9421,7 +9461,7 @@
         <v>347</v>
       </c>
       <c r="E140" s="40"/>
-      <c r="F140" s="87">
+      <c r="F140" s="85">
         <v>1.06</v>
       </c>
       <c r="G140" s="41"/>
@@ -9467,7 +9507,7 @@
       </c>
       <c r="D141" s="40"/>
       <c r="E141" s="40"/>
-      <c r="F141" s="87">
+      <c r="F141" s="85">
         <v>1.06</v>
       </c>
       <c r="G141" s="41"/>
@@ -9515,8 +9555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F9E4F3-31CB-475C-8CB9-7DACAF7F9883}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I16"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9607,7 +9647,7 @@
       <c r="I4" s="62"/>
       <c r="J4" s="61"/>
     </row>
-    <row r="5" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="64">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9717,7 +9757,7 @@
       <c r="I9" s="62"/>
       <c r="J9" s="61"/>
     </row>
-    <row r="10" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9739,7 +9779,7 @@
       <c r="I10" s="62"/>
       <c r="J10" s="61"/>
     </row>
-    <row r="11" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9799,7 +9839,7 @@
       <c r="H13" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="83">
         <f>D2</f>
         <v>24000</v>
       </c>
@@ -9824,7 +9864,7 @@
       <c r="H14" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="83">
         <f>SUM(D3:D13)</f>
         <v>3610</v>
       </c>
@@ -9849,7 +9889,7 @@
       <c r="H15" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="83">
         <f>SUM(D22:D30)</f>
         <v>16144.65</v>
       </c>
@@ -9874,7 +9914,7 @@
       <c r="H16" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="83">
         <f>SUM(D15:D21)</f>
         <v>1450</v>
       </c>
@@ -9914,7 +9954,7 @@
       <c r="E18" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="83">
+      <c r="I18" s="82">
         <f>SUM(I13:I16)</f>
         <v>45204.65</v>
       </c>
@@ -10098,7 +10138,7 @@
       <c r="E28" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="83"/>
+      <c r="F28" s="82"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="64">
@@ -10117,7 +10157,7 @@
       <c r="E29" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="F29" s="83"/>
+      <c r="F29" s="82"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
@@ -10136,14 +10176,10 @@
       <c r="E30" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="83"/>
+      <c r="F30" s="82"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="81"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="81"/>
+      <c r="D31" s="81"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C32" s="69" t="s">

--- a/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Project-Budget.xlsx
+++ b/TERM3/T3B1-ICTPMG613-Manage_ICT_project_plan/2-ICTPMG613-Assessment_Task 2/ICTPMG613_AssessmentTask_Manuel_S_Perez_E-Project-Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM3\T3B1-ICTPMG613-Manage_ICT_project_plan\2-ICTPMG613-Assessment_Task 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEC5F08-8BB7-4E3C-96AD-86424D3EFAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3C5B98-0655-4CBD-B19D-9020E99961C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Cover Page" sheetId="5" r:id="rId1"/>
     <sheet name="Project Budget" sheetId="3" r:id="rId2"/>
     <sheet name="Scope Elements" sheetId="6" r:id="rId3"/>
+    <sheet name="COST BASELINE" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="CIQWBGuid" hidden="1">"2cd8126d-26c3-430c-b7fa-a069e3a1fc62"</definedName>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="357">
   <si>
     <t>https://corporatefinanceinstitute.com/</t>
   </si>
@@ -1127,6 +1128,27 @@
   </si>
   <si>
     <t>=D12+D17+D25+D126+D135</t>
+  </si>
+  <si>
+    <t>Project Phase</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Includes project kickoff, defining objectives, assumptions and constraints, high-level scope, and securing approvals from the Project Sponsor. Includes work hours for all project team members involved in these activities.</t>
+  </si>
+  <si>
+    <t>Covers detailed project planning, development of Work Breakdown Structure (WBS), schedule, cost, quality, risk, communication, and resource management plans. Includes work hours for all project team members involved in these activities.</t>
+  </si>
+  <si>
+    <t>Involves implementation of the infrastructure migration, cloud setup, deployment of core applications, website design and development, provisioning new devices, staff training, and quality control activities. Includes work hours for all project team members involved in these activities.</t>
+  </si>
+  <si>
+    <t>Encompasses monitoring project progress, managing changes, tracking risks, reporting performance using earned value calculations, and ensuring deliverables meet requirements. Includes work hours for all project team members involved in these activities.</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1657,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1851,16 +1873,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3060,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3327,7 +3355,7 @@
       <c r="C10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="102"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="40"/>
       <c r="F10" s="85">
         <v>1.06</v>
@@ -3373,7 +3401,7 @@
       <c r="C11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="105"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="95"/>
       <c r="F11" s="98">
         <v>1.06</v>
@@ -3419,7 +3447,7 @@
       <c r="C12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="41">
         <v>1</v>
       </c>
       <c r="E12" s="40"/>
@@ -3611,7 +3639,7 @@
       <c r="C16" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="103">
+      <c r="D16" s="41">
         <v>0</v>
       </c>
       <c r="E16" s="40"/>
@@ -3705,7 +3733,7 @@
       <c r="C18" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="102">
         <v>3</v>
       </c>
       <c r="E18" s="40"/>
@@ -3753,7 +3781,7 @@
       <c r="C19" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="102">
         <v>1</v>
       </c>
       <c r="E19" s="40"/>
@@ -3801,7 +3829,7 @@
       <c r="C20" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="102">
         <v>1</v>
       </c>
       <c r="E20" s="40"/>
@@ -3849,7 +3877,7 @@
       <c r="C21" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="102">
         <v>1</v>
       </c>
       <c r="E21" s="40"/>
@@ -3897,7 +3925,7 @@
       <c r="C22" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="102">
         <v>5</v>
       </c>
       <c r="E22" s="40"/>
@@ -3945,7 +3973,7 @@
       <c r="C23" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="102">
         <v>2</v>
       </c>
       <c r="E23" s="40"/>
@@ -3993,7 +4021,7 @@
       <c r="C24" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="104"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="40"/>
       <c r="F24" s="85">
         <v>1.06</v>
@@ -9556,7 +9584,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9566,7 +9594,8 @@
     <col min="3" max="3" width="32.75" style="63" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" style="77"/>
     <col min="5" max="5" width="42.5" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="24.875" style="63"/>
+    <col min="6" max="6" width="33.875" style="63" customWidth="1"/>
+    <col min="7" max="16384" width="24.875" style="63"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9585,6 +9614,13 @@
       <c r="E1" s="68" t="s">
         <v>42</v>
       </c>
+      <c r="F1" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="83">
+        <f>D2</f>
+        <v>24000</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="64">
@@ -9601,6 +9637,13 @@
       </c>
       <c r="E2" s="70" t="s">
         <v>88</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="83">
+        <f>SUM(D3:D13)</f>
+        <v>3610</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -9620,7 +9663,13 @@
       <c r="E3" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="61"/>
+      <c r="F3" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="83">
+        <f>SUM(D22:D30)</f>
+        <v>16144.65</v>
+      </c>
       <c r="H3" s="62"/>
       <c r="I3" s="62"/>
       <c r="J3" s="61"/>
@@ -9642,7 +9691,13 @@
       <c r="E4" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="61"/>
+      <c r="F4" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="83">
+        <f>SUM(D15:D21)</f>
+        <v>1450</v>
+      </c>
       <c r="H4" s="62"/>
       <c r="I4" s="62"/>
       <c r="J4" s="61"/>
@@ -9664,7 +9719,6 @@
       <c r="E5" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="61"/>
       <c r="H5" s="62"/>
       <c r="I5" s="62"/>
       <c r="J5" s="61"/>
@@ -9686,7 +9740,10 @@
       <c r="E6" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="61"/>
+      <c r="G6" s="82">
+        <f>SUM(G1:G4)</f>
+        <v>45204.65</v>
+      </c>
       <c r="H6" s="62"/>
       <c r="I6" s="62"/>
       <c r="J6" s="61"/>
@@ -9836,13 +9893,6 @@
       <c r="E13" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="83">
-        <f>D2</f>
-        <v>24000</v>
-      </c>
     </row>
     <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="64">
@@ -9861,13 +9911,6 @@
       <c r="E14" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="83">
-        <f>SUM(D3:D13)</f>
-        <v>3610</v>
-      </c>
     </row>
     <row r="15" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64">
@@ -9886,13 +9929,6 @@
       <c r="E15" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="83">
-        <f>SUM(D22:D30)</f>
-        <v>16144.65</v>
-      </c>
     </row>
     <row r="16" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="64">
@@ -9911,15 +9947,8 @@
       <c r="E16" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="64" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="83">
-        <f>SUM(D15:D21)</f>
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="64">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9937,7 +9966,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="64">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9954,12 +9983,8 @@
       <c r="E18" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="82">
-        <f>SUM(I13:I16)</f>
-        <v>45204.65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9977,7 +10002,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -9995,7 +10020,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="64">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -10013,7 +10038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="64">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -10031,7 +10056,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="64">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -10049,7 +10074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="64">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -10067,7 +10092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="64">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -10085,7 +10110,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="64">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -10103,7 +10128,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="64">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -10121,7 +10146,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="64">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -10140,7 +10165,7 @@
       </c>
       <c r="F28" s="82"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="64">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -10159,7 +10184,7 @@
       </c>
       <c r="F29" s="82"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="64">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -10178,16 +10203,91 @@
       </c>
       <c r="F30" s="82"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" s="81"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="69" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="76">
         <f>SUM(D2:D30)</f>
         <v>45204.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A1ED55-C26D-406D-9B7C-0D122C5ECE3D}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="104" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>352</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="107">
+        <v>2400</v>
+      </c>
+      <c r="C2" s="106" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+      <c r="A3" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="107">
+        <v>3600</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+      <c r="A4" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="107">
+        <v>14400</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+      <c r="A5" s="106" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="107">
+        <v>2400</v>
+      </c>
+      <c r="C5" s="106" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
